--- a/test.xlsx
+++ b/test.xlsx
@@ -32,8 +32,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -63,7 +71,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
